--- a/uploads/students1.xlsx
+++ b/uploads/students1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7DED436-773F-4A60-B4FA-63A485300BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9D6194-D98F-4A47-824B-676762AA622B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1AE093B2-4A24-4CFA-95EF-A0358DF54E1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>jay@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Network</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -92,11 +88,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hun@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunkijung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunki0415@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunkijungg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69787503-C12F-4BF6-BA4F-1643E9B118CB}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -540,10 +548,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="3">
         <v>45031</v>
@@ -552,24 +560,24 @@
         <v>45161</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1111</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="3">
         <v>45314</v>
@@ -578,7 +586,33 @@
         <v>45393</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45292</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45362</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -586,7 +620,10 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{B84A6195-020D-4298-BA7F-2FEACEDDAF39}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{AF6F320C-A92F-4DA3-A5ED-0F6F0340D6A8}"/>
+    <hyperlink ref="C4" r:id="rId3" display="yunkijunggyunki0415@gmail.com" xr:uid="{6E2F2C26-8486-4321-B3F3-75CB7D7303E9}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{835D2BED-D1A7-4650-89D3-0CCD1CC9A768}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>